--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wiegersprocess-my.sharepoint.com/personal/engineer_w-p-i_com/Documents/Documents/GitHub/Soft_Lure_Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{6AFDC3A7-7CED-4A64-B382-2A392A12EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE673C09-CFE2-445E-AA52-CDF12B86B0B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE324FB9-E35D-4007-A5CE-25772676C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -143,7 +143,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="166" formatCode="[$USD]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -195,18 +195,18 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -238,49 +238,19 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$USD]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -295,20 +265,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}" name="Table1" displayName="Table1" ref="A1:M101" totalsRowShown="0">
   <autoFilter ref="A1:M101" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E96F82EF-A2EB-489D-9AB6-5D54E28D9935}" name="Datum" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E96F82EF-A2EB-489D-9AB6-5D54E28D9935}" name="Datum" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{2D037FAC-930D-4C44-9FD9-E0A5BE7A73D7}" name="trade"/>
     <tableColumn id="3" xr3:uid="{0517F3BF-2AC3-46CE-8030-33992A7B8D13}" name="PF Usdt"/>
-    <tableColumn id="4" xr3:uid="{7A5A41FA-A870-436A-8780-9ADB91C4E792}" name="%winst, trade" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{ECFD0288-9AFF-482E-A878-E639CF53627A}" name="Entry grote usdt" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{D4941F93-5C7B-4BD0-B778-54EA4B44E0A5}" name="% van pf" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{7A5A41FA-A870-436A-8780-9ADB91C4E792}" name="%winst, trade" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{ECFD0288-9AFF-482E-A878-E639CF53627A}" name="Entry grote usdt" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D4941F93-5C7B-4BD0-B778-54EA4B44E0A5}" name="% van pf" dataDxfId="4">
       <calculatedColumnFormula>E2 / C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{28417176-C716-44E3-B574-52DD19FEA27D}" name="Markt trend"/>
@@ -316,7 +282,7 @@
     <tableColumn id="9" xr3:uid="{02617520-80CB-4DC0-A0C4-D59FCB6D5E0A}" name="TP1"/>
     <tableColumn id="13" xr3:uid="{D3813429-2ECA-4C30-B929-20C198DBFE3F}" name="TP2"/>
     <tableColumn id="10" xr3:uid="{DE3B3CAD-49FC-4A6A-91B2-7231BE1D2ECD}" name="BB%"/>
-    <tableColumn id="11" xr3:uid="{0A514982-9669-448B-B4B9-8B99EDD6C16D}" name="% winst op PF" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{0A514982-9669-448B-B4B9-8B99EDD6C16D}" name="% winst op PF" dataDxfId="3">
       <calculatedColumnFormula>(C3 / (C2/100)) - 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6ADD19CD-73F0-43D5-9AA5-6F9DBAEBB2BC}" name="interval "/>
@@ -645,7 +611,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,13 +671,13 @@
       <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" cm="1">
+      <c r="P1" s="2" cm="1">
         <f t="array" ref="P1">((_xlfn.XLOOKUP(TRUE, C2:C101&lt;&gt;"",C2:C101,,,-1))/(C2/100))-100</f>
-        <v>0.41395623891189359</v>
+        <v>0.99687420799189397</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>45622</v>
       </c>
       <c r="B2">
@@ -723,10 +689,10 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>40</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f t="shared" ref="F2:F33" si="0">E2 / C2</f>
         <v>0.33792346033623383</v>
       </c>
@@ -736,10 +702,10 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
       <c r="K2">
         <v>1.5</v>
       </c>
@@ -752,49 +718,70 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
         <v>118.86</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40</v>
+      </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+        <v>0.33653037186606094</v>
+      </c>
+      <c r="G3">
+        <v>88.2</v>
+      </c>
+      <c r="H3">
+        <v>19.16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3">
+        <v>2</v>
+      </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0.58051489146895108</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>119.55</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -805,12 +792,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -821,12 +808,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -837,12 +824,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -853,12 +840,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -869,12 +856,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -885,12 +872,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -901,12 +888,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -917,12 +904,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -933,12 +920,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -949,12 +936,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -965,12 +952,12 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -981,12 +968,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -997,12 +984,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1013,12 +1000,12 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1029,12 +1016,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1045,12 +1032,12 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1061,12 +1048,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1077,12 +1064,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1093,12 +1080,12 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1109,12 +1096,12 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1125,12 +1112,12 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1141,12 +1128,12 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1157,12 +1144,12 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1173,12 +1160,12 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1189,12 +1176,12 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1205,12 +1192,12 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1221,12 +1208,12 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1237,12 +1224,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1253,12 +1240,12 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="5" t="e">
         <f t="shared" ref="F34:F65" si="2">E34 / C34</f>
         <v>#DIV/0!</v>
@@ -1269,12 +1256,12 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1285,12 +1272,12 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1301,12 +1288,12 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1317,12 +1304,12 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1333,12 +1320,12 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1349,12 +1336,12 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1365,12 +1352,12 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1381,12 +1368,12 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1397,12 +1384,12 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1413,12 +1400,12 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1429,12 +1416,12 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1445,12 +1432,12 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1461,12 +1448,12 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1477,12 +1464,12 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1493,12 +1480,12 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1509,12 +1496,12 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1525,12 +1512,12 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1541,12 +1528,12 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1557,12 +1544,12 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1573,12 +1560,12 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1589,12 +1576,12 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1605,12 +1592,12 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1621,12 +1608,12 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1637,12 +1624,12 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1653,12 +1640,12 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1669,12 +1656,12 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1685,12 +1672,12 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1701,12 +1688,12 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1717,12 +1704,12 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1733,12 +1720,12 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1749,12 +1736,12 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1765,12 +1752,12 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="5" t="e">
         <f t="shared" ref="F66:F97" si="4">E66 / C66</f>
         <v>#DIV/0!</v>
@@ -1781,12 +1768,12 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1797,12 +1784,12 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1813,12 +1800,12 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1829,12 +1816,12 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1845,12 +1832,12 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="D71" s="1"/>
-      <c r="E71" s="5"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1861,12 +1848,12 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1877,12 +1864,12 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1893,12 +1880,12 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1909,12 +1896,12 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1925,12 +1912,12 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1941,12 +1928,12 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="5"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1957,12 +1944,12 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1973,12 +1960,12 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="5"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1989,12 +1976,12 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2005,12 +1992,12 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2021,12 +2008,12 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2037,12 +2024,12 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2053,12 +2040,12 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2069,12 +2056,12 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2085,12 +2072,12 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2101,12 +2088,12 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="5"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2117,12 +2104,12 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2133,12 +2120,12 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="5"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2149,12 +2136,12 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="4"/>
       <c r="F90" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2165,12 +2152,12 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2181,12 +2168,12 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="4"/>
       <c r="F92" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2197,12 +2184,12 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="5"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2213,12 +2200,12 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="D94" s="1"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="4"/>
       <c r="F94" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2229,12 +2216,12 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="D95" s="1"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2245,12 +2232,12 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="5"/>
+      <c r="E96" s="4"/>
       <c r="F96" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2261,12 +2248,12 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="5"/>
+      <c r="E97" s="4"/>
       <c r="F97" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2277,14 +2264,14 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="D98" s="1"/>
-      <c r="E98" s="5"/>
+      <c r="E98" s="4"/>
       <c r="F98" s="5" t="e">
-        <f t="shared" ref="F98:F129" si="6">E98 / C98</f>
+        <f t="shared" ref="F98:F101" si="6">E98 / C98</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L98" t="e">
@@ -2293,12 +2280,12 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="5"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -2309,12 +2296,12 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="5"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -2325,12 +2312,12 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -2347,13 +2334,13 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L101">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="G2:G101">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G101">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="L2:L101">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2369,7 +2356,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,18 +2372,19 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" cm="1">
         <f t="array" ref="A2">_xlfn.XLOOKUP(TRUE, logbook!C2:C101&lt;&gt;"",logbook!C2:C101,,,-1)</f>
-        <v>118.86</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
+        <v>119.55</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
-        <v>15.696</v>
+      <c r="C4" s="2">
+        <f>A2 / (100 * B2 * 1.5)</f>
+        <v>39.85</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2420,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE324FB9-E35D-4007-A5CE-25772676C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D30263-E5F8-47D0-AB98-1BB372001CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -22,30 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -135,6 +124,9 @@
   </si>
   <si>
     <t>BB%</t>
+  </si>
+  <si>
+    <t>89.9</t>
   </si>
 </sst>
 </file>
@@ -192,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -202,9 +194,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -250,7 +243,7 @@
       <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,24 +604,24 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,12 +664,12 @@
       <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" cm="1">
-        <f t="array" ref="P1">((_xlfn.XLOOKUP(TRUE, C2:C101&lt;&gt;"",C2:C101,,,-1))/(C2/100))-100</f>
-        <v>0.99687420799189397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="P1" ca="1">((_xlfn.XLOOKUP(TRUE, C2:C101&lt;&gt;"",C2:C101,,,-1))/(C2/100))-100</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45622</v>
       </c>
@@ -717,7 +710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -756,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -764,34 +757,56 @@
       <c r="C4">
         <v>119.55</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50</v>
+      </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41823504809703055</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>1.8</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.5687996654119587</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>120.23</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
@@ -807,7 +822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7">
         <v>6</v>
@@ -823,7 +838,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
@@ -839,7 +854,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>8</v>
@@ -855,7 +870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>9</v>
@@ -871,7 +886,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>10</v>
@@ -887,7 +902,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>11</v>
@@ -903,7 +918,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>12</v>
@@ -919,7 +934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
@@ -935,7 +950,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15">
         <v>14</v>
@@ -951,7 +966,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>15</v>
@@ -967,7 +982,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>16</v>
@@ -983,7 +998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
@@ -999,7 +1014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1015,7 +1030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1031,7 +1046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1047,7 +1062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1063,7 +1078,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1079,7 +1094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1095,7 +1110,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1111,7 +1126,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1127,7 +1142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1143,7 +1158,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1159,7 +1174,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1175,7 +1190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1191,7 +1206,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1207,7 +1222,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
@@ -1223,7 +1238,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
@@ -1239,7 +1254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
@@ -1255,7 +1270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
@@ -1271,7 +1286,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
@@ -1287,7 +1302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
@@ -1303,7 +1318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
@@ -1319,7 +1334,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
@@ -1335,7 +1350,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
@@ -1351,7 +1366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
@@ -1367,7 +1382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
@@ -1383,7 +1398,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
@@ -1399,7 +1414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
@@ -1415,7 +1430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
@@ -1431,7 +1446,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
@@ -1447,7 +1462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
@@ -1463,7 +1478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
@@ -1479,7 +1494,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
@@ -1495,7 +1510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
@@ -1511,7 +1526,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
@@ -1527,7 +1542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
@@ -1543,7 +1558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
@@ -1559,7 +1574,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
@@ -1575,7 +1590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
@@ -1591,7 +1606,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
@@ -1607,7 +1622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
@@ -1623,7 +1638,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
@@ -1639,7 +1654,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
@@ -1655,7 +1670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
@@ -1671,7 +1686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
@@ -1687,7 +1702,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
@@ -1703,7 +1718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
@@ -1719,7 +1734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
@@ -1735,7 +1750,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
@@ -1751,7 +1766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
@@ -1767,7 +1782,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
@@ -1783,7 +1798,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
@@ -1799,7 +1814,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
@@ -1815,7 +1830,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
@@ -1831,7 +1846,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
@@ -1847,7 +1862,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
@@ -1863,7 +1878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
@@ -1879,7 +1894,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
@@ -1895,7 +1910,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
@@ -1911,7 +1926,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
@@ -1927,7 +1942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
@@ -1943,7 +1958,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
@@ -1959,7 +1974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
@@ -1975,7 +1990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
@@ -1991,7 +2006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
@@ -2007,7 +2022,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
@@ -2023,7 +2038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
@@ -2039,7 +2054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
@@ -2055,7 +2070,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
@@ -2071,7 +2086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
@@ -2087,7 +2102,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
@@ -2103,7 +2118,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
@@ -2119,7 +2134,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
@@ -2135,7 +2150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
@@ -2151,7 +2166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
@@ -2167,7 +2182,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
@@ -2183,7 +2198,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
@@ -2199,7 +2214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
@@ -2215,7 +2230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
@@ -2231,7 +2246,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
@@ -2247,7 +2262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
@@ -2263,7 +2278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
@@ -2279,7 +2294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
@@ -2295,7 +2310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
@@ -2311,7 +2326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
@@ -2356,12 +2371,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2369,22 +2384,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" cm="1">
-        <f t="array" ref="A2">_xlfn.XLOOKUP(TRUE, logbook!C2:C101&lt;&gt;"",logbook!C2:C101,,,-1)</f>
-        <v>119.55</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="e" cm="1">
+        <f t="array" aca="1" ref="A2" ca="1">_xlfn.XLOOKUP(TRUE, logbook!C2:C101&lt;&gt;"",logbook!C2:C101,,,-1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="B2" s="8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
-        <f>A2 / (100 * B2 * 1.5)</f>
-        <v>39.85</v>
+      <c r="C4" s="2" t="e">
+        <f ca="1">A2 / (100 * B2 * 1.5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -2400,9 +2415,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2413,14 +2428,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
         <v>100</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
@@ -2430,7 +2445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>22</v>
       </c>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D30263-E5F8-47D0-AB98-1BB372001CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFFDDD0-E143-42ED-B5F6-34294E4022BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -24,28 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -197,9 +175,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -230,21 +223,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -262,12 +240,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}" name="Table1" displayName="Table1" ref="A1:M101" totalsRowShown="0">
   <autoFilter ref="A1:M101" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E96F82EF-A2EB-489D-9AB6-5D54E28D9935}" name="Datum" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{E96F82EF-A2EB-489D-9AB6-5D54E28D9935}" name="Datum" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2D037FAC-930D-4C44-9FD9-E0A5BE7A73D7}" name="trade"/>
     <tableColumn id="3" xr3:uid="{0517F3BF-2AC3-46CE-8030-33992A7B8D13}" name="PF Usdt"/>
-    <tableColumn id="4" xr3:uid="{7A5A41FA-A870-436A-8780-9ADB91C4E792}" name="%winst, trade" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{ECFD0288-9AFF-482E-A878-E639CF53627A}" name="Entry grote usdt" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{D4941F93-5C7B-4BD0-B778-54EA4B44E0A5}" name="% van pf" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{7A5A41FA-A870-436A-8780-9ADB91C4E792}" name="%winst, trade" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{ECFD0288-9AFF-482E-A878-E639CF53627A}" name="Entry grote usdt" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D4941F93-5C7B-4BD0-B778-54EA4B44E0A5}" name="% van pf" dataDxfId="1">
       <calculatedColumnFormula>E2 / C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{28417176-C716-44E3-B574-52DD19FEA27D}" name="Markt trend"/>
@@ -275,7 +253,7 @@
     <tableColumn id="9" xr3:uid="{02617520-80CB-4DC0-A0C4-D59FCB6D5E0A}" name="TP1"/>
     <tableColumn id="13" xr3:uid="{D3813429-2ECA-4C30-B929-20C198DBFE3F}" name="TP2"/>
     <tableColumn id="10" xr3:uid="{DE3B3CAD-49FC-4A6A-91B2-7231BE1D2ECD}" name="BB%"/>
-    <tableColumn id="11" xr3:uid="{0A514982-9669-448B-B4B9-8B99EDD6C16D}" name="% winst op PF" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{0A514982-9669-448B-B4B9-8B99EDD6C16D}" name="% winst op PF" dataDxfId="0">
       <calculatedColumnFormula>(C3 / (C2/100)) - 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6ADD19CD-73F0-43D5-9AA5-6F9DBAEBB2BC}" name="interval "/>
@@ -603,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,9 +642,9 @@
       <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="P1" ca="1">((_xlfn.XLOOKUP(TRUE, C2:C101&lt;&gt;"",C2:C101,,,-1))/(C2/100))-100</f>
-        <v>#NAME?</v>
+      <c r="P1" s="2">
+        <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
+        <v>1.5713440905634997</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -2345,17 +2323,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L101">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2370,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2385,9 +2363,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="e" cm="1">
-        <f t="array" aca="1" ref="A2" ca="1">_xlfn.XLOOKUP(TRUE, logbook!C2:C101&lt;&gt;"",logbook!C2:C101,,,-1)</f>
-        <v>#NAME?</v>
+      <c r="A2">
+        <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
+        <v>120.23</v>
       </c>
       <c r="B2" s="8">
         <v>1.4999999999999999E-2</v>
@@ -2397,9 +2375,9 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="e">
-        <f ca="1">A2 / (100 * B2 * 1.5)</f>
-        <v>#NAME?</v>
+      <c r="C4" s="2">
+        <f>A2 / (100 * B2 * 1.5)</f>
+        <v>53.43555555555556</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFFDDD0-E143-42ED-B5F6-34294E4022BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65E49E-2FD1-4CE7-BF76-2D323054A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Markt trend</t>
-  </si>
-  <si>
-    <t>Volume24h</t>
   </si>
   <si>
     <t>TP1</t>
@@ -83,9 +80,6 @@
     <t xml:space="preserve">interval </t>
   </si>
   <si>
-    <t>138m</t>
-  </si>
-  <si>
     <t>3/4</t>
   </si>
   <si>
@@ -104,7 +98,7 @@
     <t>BB%</t>
   </si>
   <si>
-    <t>89.9</t>
+    <t>Volume24h Mil</t>
   </si>
 </sst>
 </file>
@@ -162,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -173,26 +167,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -223,6 +204,21 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -240,20 +236,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}" name="Table1" displayName="Table1" ref="A1:M101" totalsRowShown="0">
   <autoFilter ref="A1:M101" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E96F82EF-A2EB-489D-9AB6-5D54E28D9935}" name="Datum" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E96F82EF-A2EB-489D-9AB6-5D54E28D9935}" name="Datum" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{2D037FAC-930D-4C44-9FD9-E0A5BE7A73D7}" name="trade"/>
     <tableColumn id="3" xr3:uid="{0517F3BF-2AC3-46CE-8030-33992A7B8D13}" name="PF Usdt"/>
-    <tableColumn id="4" xr3:uid="{7A5A41FA-A870-436A-8780-9ADB91C4E792}" name="%winst, trade" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{ECFD0288-9AFF-482E-A878-E639CF53627A}" name="Entry grote usdt" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D4941F93-5C7B-4BD0-B778-54EA4B44E0A5}" name="% van pf" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{7A5A41FA-A870-436A-8780-9ADB91C4E792}" name="%winst, trade" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{ECFD0288-9AFF-482E-A878-E639CF53627A}" name="Entry grote usdt" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D4941F93-5C7B-4BD0-B778-54EA4B44E0A5}" name="% van pf" dataDxfId="4">
       <calculatedColumnFormula>E2 / C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{28417176-C716-44E3-B574-52DD19FEA27D}" name="Markt trend"/>
-    <tableColumn id="8" xr3:uid="{0A9FAC74-1805-42E8-ADE8-9AD2D9A7A347}" name="Volume24h"/>
+    <tableColumn id="8" xr3:uid="{0A9FAC74-1805-42E8-ADE8-9AD2D9A7A347}" name="Volume24h Mil"/>
     <tableColumn id="9" xr3:uid="{02617520-80CB-4DC0-A0C4-D59FCB6D5E0A}" name="TP1"/>
     <tableColumn id="13" xr3:uid="{D3813429-2ECA-4C30-B929-20C198DBFE3F}" name="TP2"/>
     <tableColumn id="10" xr3:uid="{DE3B3CAD-49FC-4A6A-91B2-7231BE1D2ECD}" name="BB%"/>
-    <tableColumn id="11" xr3:uid="{0A514982-9669-448B-B4B9-8B99EDD6C16D}" name="% winst op PF" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{0A514982-9669-448B-B4B9-8B99EDD6C16D}" name="% winst op PF" dataDxfId="3">
       <calculatedColumnFormula>(C3 / (C2/100)) - 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6ADD19CD-73F0-43D5-9AA5-6F9DBAEBB2BC}" name="interval "/>
@@ -581,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,29 +618,29 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>1.5713440905634997</v>
+        <v>6.7584692067256924E-2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -670,11 +666,11 @@
       <c r="G2">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
+      <c r="H2">
+        <v>138</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2">
@@ -685,7 +681,7 @@
         <v>0.41395623891189359</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -713,7 +709,7 @@
         <v>19.16</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3">
@@ -724,7 +720,7 @@
         <v>0.58051489146895108</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -745,14 +741,14 @@
         <f t="shared" si="0"/>
         <v>0.41823504809703055</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
+      <c r="G4" s="10">
+        <v>89.9</v>
       </c>
       <c r="H4">
         <v>63</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -762,7 +758,7 @@
         <v>0.5687996654119587</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -773,15 +769,34 @@
       <c r="C5">
         <v>120.23</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30</v>
+      </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24952174997920651</v>
+      </c>
+      <c r="G5">
+        <v>96.2</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>-0.97313482491891534</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -789,15 +804,34 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C6">
+        <v>119.06</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20997816227112379</v>
+      </c>
+      <c r="G6">
+        <v>66.5</v>
+      </c>
+      <c r="H6">
+        <v>339</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>-0.5123467159415469</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -805,15 +839,32 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>118.45</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E7" s="4">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33769523005487545</v>
+      </c>
+      <c r="G7">
+        <v>99.9</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -2323,17 +2374,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L101">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2348,36 +2399,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>120.23</v>
+        <v>118.45</v>
       </c>
       <c r="B2" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>53.43555555555556</v>
+        <v>39.483333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -2397,19 +2448,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
@@ -2417,15 +2468,15 @@
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65E49E-2FD1-4CE7-BF76-2D323054A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DD6D3-F2FF-4331-B5E4-84F17079ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -99,6 +110,18 @@
   </si>
   <si>
     <t>Volume24h Mil</t>
+  </si>
+  <si>
+    <t>opmerkingen</t>
+  </si>
+  <si>
+    <t>bullrun</t>
+  </si>
+  <si>
+    <t>btc dipje</t>
+  </si>
+  <si>
+    <t>btc staties. Kleinere winsten pakken</t>
   </si>
 </sst>
 </file>
@@ -156,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -167,7 +190,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -233,9 +255,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}" name="Table1" displayName="Table1" ref="A1:M101" totalsRowShown="0">
-  <autoFilter ref="A1:M101" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}" name="Table1" displayName="Table1" ref="A1:N101" totalsRowShown="0">
+  <autoFilter ref="A1:N101" xr:uid="{E4225077-0106-4B98-8BF7-35C701040E3B}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{E96F82EF-A2EB-489D-9AB6-5D54E28D9935}" name="Datum" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{2D037FAC-930D-4C44-9FD9-E0A5BE7A73D7}" name="trade"/>
     <tableColumn id="3" xr3:uid="{0517F3BF-2AC3-46CE-8030-33992A7B8D13}" name="PF Usdt"/>
@@ -253,6 +275,7 @@
       <calculatedColumnFormula>(C3 / (C2/100)) - 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6ADD19CD-73F0-43D5-9AA5-6F9DBAEBB2BC}" name="interval "/>
+    <tableColumn id="14" xr3:uid="{3143499C-D6EA-494D-8EB4-640B0927E0BF}" name="opmerkingen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -578,24 +601,25 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,15 +659,18 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
       <c r="O1" t="s">
         <v>21</v>
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>6.7584692067256924E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.29568302779421174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45622</v>
       </c>
@@ -683,8 +710,11 @@
       <c r="M2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -722,8 +752,11 @@
       <c r="M3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -741,7 +774,7 @@
         <f t="shared" si="0"/>
         <v>0.41823504809703055</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
         <v>89.9</v>
       </c>
       <c r="H4">
@@ -760,8 +793,11 @@
       <c r="M4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -785,7 +821,7 @@
       <c r="H5">
         <v>16</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>0.02</v>
       </c>
       <c r="K5">
@@ -798,8 +834,11 @@
       <c r="M5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
@@ -823,7 +862,7 @@
       <c r="H6">
         <v>339</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>0.01</v>
       </c>
       <c r="L6">
@@ -833,8 +872,11 @@
       <c r="M6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7">
         <v>6</v>
@@ -842,7 +884,9 @@
       <c r="C7">
         <v>118.45</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.3</v>
+      </c>
       <c r="E7" s="4">
         <v>40</v>
       </c>
@@ -861,29 +905,32 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0.22794428028703351</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>118.72</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>8</v>
@@ -899,7 +946,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>9</v>
@@ -915,7 +962,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>10</v>
@@ -931,7 +978,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>11</v>
@@ -947,7 +994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>12</v>
@@ -963,7 +1010,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
@@ -979,7 +1026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15">
         <v>14</v>
@@ -995,7 +1042,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>15</v>
@@ -1011,7 +1058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>16</v>
@@ -1027,7 +1074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
@@ -1043,7 +1090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1059,7 +1106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1075,7 +1122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1091,7 +1138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1107,7 +1154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1123,7 +1170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1139,7 +1186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1155,7 +1202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1171,7 +1218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1187,7 +1234,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1203,7 +1250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1219,7 +1266,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1235,7 +1282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1251,7 +1298,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
@@ -1267,7 +1314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
@@ -1283,7 +1330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
@@ -1299,7 +1346,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
@@ -1315,7 +1362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
@@ -1331,7 +1378,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
@@ -1347,7 +1394,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
@@ -1363,7 +1410,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
@@ -1379,7 +1426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
@@ -1395,7 +1442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
@@ -1411,7 +1458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
@@ -1427,7 +1474,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
@@ -1443,7 +1490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
@@ -1459,7 +1506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
@@ -1475,7 +1522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
@@ -1491,7 +1538,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
@@ -1507,7 +1554,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
@@ -1523,7 +1570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
@@ -1539,7 +1586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
@@ -1555,7 +1602,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
@@ -1571,7 +1618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
@@ -1587,7 +1634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
@@ -1603,7 +1650,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
@@ -1619,7 +1666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
@@ -1635,7 +1682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
@@ -1651,7 +1698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
@@ -1667,7 +1714,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
@@ -1683,7 +1730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
@@ -1699,7 +1746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
@@ -1715,7 +1762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
@@ -1731,7 +1778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
@@ -1747,7 +1794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
@@ -1763,7 +1810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
@@ -1779,7 +1826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
@@ -1795,7 +1842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
@@ -1811,7 +1858,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
@@ -1827,7 +1874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
@@ -1843,7 +1890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
@@ -1859,7 +1906,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
@@ -1875,7 +1922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
@@ -1891,7 +1938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
@@ -1907,7 +1954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
@@ -1923,7 +1970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
@@ -1939,7 +1986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
@@ -1955,7 +2002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
@@ -1971,7 +2018,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
@@ -1987,7 +2034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
@@ -2003,7 +2050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
@@ -2019,7 +2066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
@@ -2035,7 +2082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
@@ -2051,7 +2098,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
@@ -2067,7 +2114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
@@ -2083,7 +2130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
@@ -2099,7 +2146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
@@ -2115,7 +2162,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
@@ -2131,7 +2178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
@@ -2147,7 +2194,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
@@ -2163,7 +2210,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
@@ -2179,7 +2226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
@@ -2195,7 +2242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
@@ -2211,7 +2258,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
@@ -2227,7 +2274,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
@@ -2243,7 +2290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
@@ -2259,7 +2306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
@@ -2275,7 +2322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
@@ -2291,7 +2338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
@@ -2307,7 +2354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
@@ -2323,7 +2370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
@@ -2339,7 +2386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
@@ -2355,7 +2402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
@@ -2403,9 +2450,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2413,22 +2460,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>118.45</v>
+        <v>118.72</v>
       </c>
       <c r="B2" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>39.483333333333334</v>
+        <v>39.573333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -2444,9 +2491,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2457,14 +2504,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>60</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
@@ -2474,7 +2521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>20</v>
       </c>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DD6D3-F2FF-4331-B5E4-84F17079ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2483F916-3D6F-412B-81EB-18A15DE4BC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -122,6 +111,9 @@
   </si>
   <si>
     <t>btc staties. Kleinere winsten pakken</t>
+  </si>
+  <si>
+    <t>btc stijgt</t>
   </si>
 </sst>
 </file>
@@ -601,25 +593,25 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,10 +659,10 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>0.29568302779421174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.59136605558840927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45622</v>
       </c>
@@ -714,7 +706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -756,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -797,7 +789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -838,7 +830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
@@ -876,8 +868,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>45625</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
@@ -911,7 +905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
@@ -919,34 +913,56 @@
       <c r="C8">
         <v>118.72</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25</v>
+      </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21057951482479784</v>
+      </c>
+      <c r="G8">
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.29481132075470384</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>119.07</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>9</v>
@@ -962,7 +978,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>10</v>
@@ -978,7 +994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>11</v>
@@ -994,7 +1010,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>12</v>
@@ -1010,7 +1026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
@@ -1026,7 +1042,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15">
         <v>14</v>
@@ -1042,7 +1058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>15</v>
@@ -1058,7 +1074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>16</v>
@@ -1074,7 +1090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
@@ -1090,7 +1106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1106,7 +1122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1122,7 +1138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1138,7 +1154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1154,7 +1170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1170,7 +1186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1186,7 +1202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1202,7 +1218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1218,7 +1234,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1234,7 +1250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1250,7 +1266,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1266,7 +1282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1282,7 +1298,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1298,7 +1314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
@@ -1314,7 +1330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
@@ -1330,7 +1346,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
@@ -1346,7 +1362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
@@ -1362,7 +1378,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
@@ -1378,7 +1394,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
@@ -1394,7 +1410,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
@@ -1410,7 +1426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
@@ -1426,7 +1442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
@@ -1442,7 +1458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
@@ -1458,7 +1474,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
@@ -1474,7 +1490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
@@ -1490,7 +1506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
@@ -1506,7 +1522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
@@ -1522,7 +1538,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
@@ -1538,7 +1554,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
@@ -1554,7 +1570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
@@ -1570,7 +1586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
@@ -1586,7 +1602,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
@@ -1602,7 +1618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
@@ -1618,7 +1634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
@@ -1634,7 +1650,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
@@ -1650,7 +1666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
@@ -1666,7 +1682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
@@ -1682,7 +1698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
@@ -1698,7 +1714,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
@@ -1714,7 +1730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
@@ -1730,7 +1746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
@@ -1746,7 +1762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
@@ -1762,7 +1778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
@@ -1778,7 +1794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
@@ -1794,7 +1810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
@@ -1810,7 +1826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
@@ -1826,7 +1842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
@@ -1842,7 +1858,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
@@ -1858,7 +1874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
@@ -1874,7 +1890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
@@ -1890,7 +1906,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
@@ -1906,7 +1922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
@@ -1922,7 +1938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
@@ -1938,7 +1954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
@@ -1954,7 +1970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
@@ -1970,7 +1986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
@@ -1986,7 +2002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
@@ -2002,7 +2018,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
@@ -2018,7 +2034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
@@ -2034,7 +2050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
@@ -2050,7 +2066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
@@ -2066,7 +2082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
@@ -2082,7 +2098,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
@@ -2098,7 +2114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
@@ -2114,7 +2130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
@@ -2130,7 +2146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
@@ -2146,7 +2162,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
@@ -2162,7 +2178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
@@ -2178,7 +2194,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
@@ -2194,7 +2210,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
@@ -2210,7 +2226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
@@ -2226,7 +2242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
@@ -2242,7 +2258,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
@@ -2258,7 +2274,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
@@ -2274,7 +2290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
@@ -2290,7 +2306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
@@ -2306,7 +2322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
@@ -2322,7 +2338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
@@ -2338,7 +2354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
@@ -2354,7 +2370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
@@ -2370,7 +2386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
@@ -2386,7 +2402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
@@ -2402,7 +2418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
@@ -2447,12 +2463,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2460,22 +2476,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>118.72</v>
+        <v>119.07</v>
       </c>
       <c r="B2" s="8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>39.573333333333331</v>
+        <v>26.459999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2491,9 +2507,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2504,14 +2520,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>66.666666666666671</v>
+        <v>71.428571428571416</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
@@ -2521,7 +2537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>20</v>
       </c>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2483F916-3D6F-412B-81EB-18A15DE4BC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635088AC-4704-403F-B1A1-72641AB4F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -593,7 +593,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,15 +936,17 @@
         <f t="shared" si="1"/>
         <v>0.29481132075470384</v>
       </c>
-      <c r="M8">
-        <v>2</v>
+      <c r="M8" t="s">
+        <v>18</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>45627</v>
+      </c>
       <c r="B9">
         <v>8</v>
       </c>
@@ -952,14 +954,34 @@
         <v>119.07</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>40</v>
+      </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33593684387335182</v>
+      </c>
+      <c r="G9">
+        <v>96.5</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
         <v>-100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -2463,7 +2485,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2482,7 +2504,7 @@
         <v>119.07</v>
       </c>
       <c r="B2" s="8">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2491,7 +2513,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>26.459999999999997</v>
+        <v>13.229999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635088AC-4704-403F-B1A1-72641AB4F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F018E04-3734-4636-A2FC-7E47D79B32B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>0.59136605558840927</v>
+        <v>-0.11827321111768185</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -953,7 +953,9 @@
       <c r="C9">
         <v>119.07</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>-3</v>
+      </c>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -975,7 +977,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>-0.70546737213402366</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
@@ -989,15 +991,18 @@
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>118.23</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -2501,7 +2506,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>119.07</v>
+        <v>118.23</v>
       </c>
       <c r="B2" s="8">
         <v>0.06</v>
@@ -2513,7 +2518,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>13.229999999999999</v>
+        <v>13.136666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2550,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>71.428571428571416</v>
+        <v>62.5</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
@@ -2553,7 +2558,7 @@
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F018E04-3734-4636-A2FC-7E47D79B32B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9EB364-0AC6-4C92-ABB4-781042BA1894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2489,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2509,7 +2509,7 @@
         <v>118.23</v>
       </c>
       <c r="B2" s="8">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>13.136666666666667</v>
+        <v>39.410000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9EB364-0AC6-4C92-ABB4-781042BA1894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EA3A79-9C33-4E3B-97AF-2F872388F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>btc stijgt</t>
+  </si>
+  <si>
+    <t>98,8</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -987,7 +990,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3">
+        <v>45632</v>
+      </c>
       <c r="B10">
         <v>9</v>
       </c>
@@ -995,14 +1000,31 @@
         <v>118.23</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3383236065296456</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
         <v>-100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -2489,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2509,7 +2531,7 @@
         <v>118.23</v>
       </c>
       <c r="B2" s="8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2518,7 +2540,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>39.410000000000004</v>
+        <v>26.273333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EA3A79-9C33-4E3B-97AF-2F872388F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FD8800-D11C-40D2-BF12-8393C3A74886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>btc stijgt</t>
-  </si>
-  <si>
-    <t>98,8</t>
   </si>
 </sst>
 </file>
@@ -596,7 +593,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,7 +659,7 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>-0.11827321111768185</v>
+        <v>-0.86170482385739433</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -999,7 +996,9 @@
       <c r="C10">
         <v>118.23</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>-3</v>
+      </c>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1007,8 +1006,8 @@
         <f t="shared" si="0"/>
         <v>0.3383236065296456</v>
       </c>
-      <c r="G10" t="s">
-        <v>29</v>
+      <c r="G10">
+        <v>98.8</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -1021,7 +1020,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>-0.74431193436524268</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
@@ -1032,15 +1031,18 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>117.35</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -2528,7 +2530,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>118.23</v>
+        <v>117.35</v>
       </c>
       <c r="B2" s="8">
         <v>0.03</v>
@@ -2540,7 +2542,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>26.273333333333333</v>
+        <v>26.077777777777776</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +2574,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>62.5</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
@@ -2580,7 +2582,7 @@
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FD8800-D11C-40D2-BF12-8393C3A74886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854A0E8-FDCF-4008-BA23-B68ED6CA5AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>btc stijgt</t>
+  </si>
+  <si>
+    <t>15m</t>
   </si>
 </sst>
 </file>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,7 +1030,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>45633</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>
@@ -1035,14 +1040,31 @@
         <v>117.35</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>20</v>
+      </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1704303365999148</v>
+      </c>
+      <c r="G11">
+        <v>93.1</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
         <v>-100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -2513,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2533,7 +2555,7 @@
         <v>117.35</v>
       </c>
       <c r="B2" s="8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2542,7 +2564,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>26.077777777777776</v>
+        <v>39.116666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854A0E8-FDCF-4008-BA23-B68ED6CA5AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED7D35-27B0-45E1-82FC-7753D12ED470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>15m</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>5m</t>
   </si>
 </sst>
 </file>
@@ -595,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,7 +668,7 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>-0.86170482385739433</v>
+        <v>-0.59981414209681816</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1039,7 +1045,9 @@
       <c r="C11">
         <v>117.35</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="4">
         <v>20</v>
       </c>
@@ -1061,26 +1069,50 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0.1704303365999067</v>
       </c>
       <c r="M11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>45635</v>
+      </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C12">
+        <v>117.55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.34028073160357297</v>
+      </c>
+      <c r="G12">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H12">
+        <v>8.6</v>
+      </c>
+      <c r="I12">
+        <v>0.4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>9.3577201190981896E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1088,15 +1120,18 @@
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>117.66</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -2535,7 +2570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2552,7 +2587,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>117.35</v>
+        <v>117.66</v>
       </c>
       <c r="B2" s="8">
         <v>0.02</v>
@@ -2564,7 +2599,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>39.116666666666667</v>
+        <v>39.22</v>
       </c>
     </row>
   </sheetData>
@@ -2596,11 +2631,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>55.555555555555557</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED7D35-27B0-45E1-82FC-7753D12ED470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6C4BE-9A32-437D-BF43-724C3E91CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6C4BE-9A32-437D-BF43-724C3E91CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF92E3-E7B1-4007-B1FA-B6CAE28D036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>15m</t>
-  </si>
-  <si>
-    <t>2,5</t>
   </si>
   <si>
     <t>5m</t>
@@ -601,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,7 +665,7 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>-0.59981414209681816</v>
+        <v>-0.43930049843710606</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1104,34 +1101,55 @@
       <c r="I12">
         <v>0.4</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12">
+        <v>2.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>9.3577201190981896E-2</v>
+      </c>
+      <c r="M12" t="s">
         <v>30</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>9.3577201190981896E-2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>45637</v>
+      </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
         <v>117.66</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20</v>
+      </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16998130205677375</v>
+      </c>
+      <c r="G13">
+        <v>64.7</v>
+      </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0.16148223695394393</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1139,15 +1157,18 @@
       <c r="B14">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>117.85</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -2570,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2587,10 +2608,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>117.66</v>
+        <v>117.85</v>
       </c>
       <c r="B2" s="8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2599,7 +2620,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>39.22</v>
+        <v>19.641666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -2631,11 +2652,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>63.636363636363633</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF92E3-E7B1-4007-B1FA-B6CAE28D036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C70427-C23B-4E30-B355-0DC8A31DA970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="P L ratio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +121,9 @@
   </si>
   <si>
     <t>5m</t>
+  </si>
+  <si>
+    <t>stevige daling</t>
   </si>
 </sst>
 </file>
@@ -598,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,7 +669,7 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>-0.43930049843710606</v>
+        <v>-0.20275407620174235</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1160,15 +1164,34 @@
       <c r="C14">
         <v>117.85</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12728044123886298</v>
+      </c>
+      <c r="G14">
+        <v>75</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>1.5</v>
+      </c>
+      <c r="K14">
+        <v>5.6</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0.23759015697922337</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1176,15 +1199,18 @@
       <c r="B15">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>118.13</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -2591,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2608,10 +2634,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>117.85</v>
+        <v>118.13</v>
       </c>
       <c r="B2" s="8">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2620,7 +2646,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>19.641666666666666</v>
+        <v>15.750666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -2652,11 +2678,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>66.666666666666671</v>
+        <v>69.230769230769226</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C70427-C23B-4E30-B355-0DC8A31DA970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E3D2C-8B66-4D99-9ABA-0286543F087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="P L ratio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -602,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDA3525-4390-4090-AFA4-155EB9F912D1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,7 +1194,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>45642</v>
+      </c>
       <c r="B15">
         <v>14</v>
       </c>
@@ -1203,14 +1204,31 @@
         <v>118.13</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>20</v>
+      </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16930500296283757</v>
+      </c>
+      <c r="G15">
+        <v>95.1</v>
+      </c>
+      <c r="H15">
+        <v>11.4</v>
+      </c>
+      <c r="I15">
+        <v>0.9</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
         <v>-100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -2617,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F031A-3A8C-43C6-A9CF-5E17A4447EA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2637,7 +2655,7 @@
         <v>118.13</v>
       </c>
       <c r="B2" s="8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2646,7 +2664,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>15.750666666666666</v>
+        <v>19.688333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E3D2C-8B66-4D99-9ABA-0286543F087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E64201-3410-440D-9541-1436EF2BE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -123,6 +134,9 @@
   </si>
   <si>
     <t>stevige daling</t>
+  </si>
+  <si>
+    <t>was een winst tade maar probleem met te veel dust</t>
   </si>
 </sst>
 </file>
@@ -602,25 +616,25 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,10 +682,10 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>-0.20275407620174235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-0.22809833572695482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45622</v>
       </c>
@@ -715,7 +729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -757,7 +771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -798,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -839,7 +853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
@@ -877,7 +891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45625</v>
       </c>
@@ -914,7 +928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
@@ -952,7 +966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45627</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45632</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45633</v>
       </c>
@@ -1075,7 +1089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45635</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45637</v>
       </c>
@@ -1155,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
@@ -1187,13 +1201,13 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>0.23759015697922337</v>
+        <v>0.15273652948664562</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45642</v>
       </c>
@@ -1201,15 +1215,17 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>118.13</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>118.03</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.87</v>
+      </c>
       <c r="E15" s="4">
         <v>20</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0.16930500296283757</v>
+        <v>0.16944844531051428</v>
       </c>
       <c r="G15">
         <v>95.1</v>
@@ -1225,29 +1241,35 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>5.9306955858687616E-2</v>
       </c>
       <c r="M15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>118.1</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>16</v>
@@ -1263,7 +1285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
@@ -1279,7 +1301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1295,7 +1317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1311,7 +1333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1327,7 +1349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1343,7 +1365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1359,7 +1381,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1375,7 +1397,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1391,7 +1413,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1407,7 +1429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1423,7 +1445,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1439,7 +1461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1455,7 +1477,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1471,7 +1493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1487,7 +1509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
@@ -1503,7 +1525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
@@ -1519,7 +1541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
@@ -1535,7 +1557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
@@ -1551,7 +1573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
@@ -1567,7 +1589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
@@ -1583,7 +1605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
@@ -1599,7 +1621,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
@@ -1615,7 +1637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
@@ -1631,7 +1653,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
@@ -1647,7 +1669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
@@ -1663,7 +1685,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
@@ -1679,7 +1701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
@@ -1695,7 +1717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
@@ -1711,7 +1733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
@@ -1727,7 +1749,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
@@ -1743,7 +1765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
@@ -1759,7 +1781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
@@ -1775,7 +1797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
@@ -1791,7 +1813,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
@@ -1807,7 +1829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
@@ -1823,7 +1845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
@@ -1839,7 +1861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
@@ -1855,7 +1877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
@@ -1871,7 +1893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
@@ -1887,7 +1909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
@@ -1903,7 +1925,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
@@ -1919,7 +1941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
@@ -1935,7 +1957,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
@@ -1951,7 +1973,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
@@ -1967,7 +1989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
@@ -1983,7 +2005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
@@ -1999,7 +2021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
@@ -2015,7 +2037,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
@@ -2031,7 +2053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
@@ -2047,7 +2069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
@@ -2063,7 +2085,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
@@ -2079,7 +2101,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
@@ -2095,7 +2117,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
@@ -2111,7 +2133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
@@ -2127,7 +2149,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
@@ -2143,7 +2165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
@@ -2159,7 +2181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
@@ -2175,7 +2197,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
@@ -2191,7 +2213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
@@ -2207,7 +2229,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
@@ -2223,7 +2245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
@@ -2239,7 +2261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
@@ -2255,7 +2277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
@@ -2271,7 +2293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
@@ -2287,7 +2309,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
@@ -2303,7 +2325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
@@ -2319,7 +2341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
@@ -2335,7 +2357,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
@@ -2351,7 +2373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
@@ -2367,7 +2389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
@@ -2383,7 +2405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
@@ -2399,7 +2421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
@@ -2415,7 +2437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
@@ -2431,7 +2453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
@@ -2447,7 +2469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
@@ -2463,7 +2485,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
@@ -2479,7 +2501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
@@ -2495,7 +2517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
@@ -2511,7 +2533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
@@ -2527,7 +2549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
@@ -2543,7 +2565,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
@@ -2559,7 +2581,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
@@ -2575,7 +2597,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
@@ -2591,7 +2613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
@@ -2639,9 +2661,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2649,22 +2671,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>118.13</v>
+        <v>118.1</v>
       </c>
       <c r="B2" s="8">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>19.688333333333333</v>
+        <v>19.683333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -2680,9 +2702,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2693,14 +2715,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>69.230769230769226</v>
+        <v>71.428571428571416</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
@@ -2710,7 +2732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>20</v>
       </c>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E64201-3410-440D-9541-1436EF2BE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7872A72-4909-4733-8DAF-C9C7282CA9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -616,25 +605,25 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +674,7 @@
         <v>-0.22809833572695482</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45622</v>
       </c>
@@ -729,7 +718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -771,7 +760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -812,7 +801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -853,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
@@ -891,7 +880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45625</v>
       </c>
@@ -928,7 +917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
@@ -966,7 +955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45627</v>
       </c>
@@ -1009,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45632</v>
       </c>
@@ -1049,7 +1038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45633</v>
       </c>
@@ -1089,7 +1078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45635</v>
       </c>
@@ -1129,7 +1118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45637</v>
       </c>
@@ -1169,7 +1158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
@@ -1207,7 +1196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45642</v>
       </c>
@@ -1250,8 +1239,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>45645</v>
+      </c>
       <c r="B16">
         <v>15</v>
       </c>
@@ -1259,17 +1250,28 @@
         <v>118.1</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21168501270110077</v>
+      </c>
+      <c r="G16">
+        <v>74.3</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>16</v>
@@ -1285,7 +1287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
@@ -1301,7 +1303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1317,7 +1319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1333,7 +1335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1349,7 +1351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1365,7 +1367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1381,7 +1383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1397,7 +1399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1413,7 +1415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1429,7 +1431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1445,7 +1447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1461,7 +1463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1477,7 +1479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1493,7 +1495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1509,7 +1511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
@@ -1525,7 +1527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
@@ -1541,7 +1543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
@@ -1557,7 +1559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
@@ -1573,7 +1575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
@@ -1589,7 +1591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
@@ -1605,7 +1607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
@@ -1621,7 +1623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
@@ -1637,7 +1639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
@@ -1653,7 +1655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
@@ -1669,7 +1671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
@@ -1685,7 +1687,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
@@ -1701,7 +1703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
@@ -1717,7 +1719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
@@ -1733,7 +1735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
@@ -1749,7 +1751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
@@ -1765,7 +1767,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
@@ -1781,7 +1783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
@@ -1797,7 +1799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
@@ -1813,7 +1815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
@@ -1829,7 +1831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
@@ -1845,7 +1847,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
@@ -1861,7 +1863,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
@@ -1877,7 +1879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
@@ -1893,7 +1895,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
@@ -1909,7 +1911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
@@ -1925,7 +1927,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
@@ -1941,7 +1943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
@@ -1957,7 +1959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
@@ -1973,7 +1975,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
@@ -1989,7 +1991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
@@ -2005,7 +2007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
@@ -2021,7 +2023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
@@ -2037,7 +2039,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
@@ -2053,7 +2055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
@@ -2069,7 +2071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
@@ -2085,7 +2087,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
@@ -2101,7 +2103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
@@ -2117,7 +2119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
@@ -2133,7 +2135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
@@ -2149,7 +2151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
@@ -2165,7 +2167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
@@ -2181,7 +2183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
@@ -2197,7 +2199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
@@ -2213,7 +2215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
@@ -2229,7 +2231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
@@ -2245,7 +2247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
@@ -2261,7 +2263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
@@ -2277,7 +2279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
@@ -2293,7 +2295,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
@@ -2309,7 +2311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
@@ -2325,7 +2327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
@@ -2341,7 +2343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
@@ -2357,7 +2359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
@@ -2373,7 +2375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
@@ -2389,7 +2391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
@@ -2405,7 +2407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
@@ -2421,7 +2423,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
@@ -2437,7 +2439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
@@ -2453,7 +2455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
@@ -2469,7 +2471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
@@ -2485,7 +2487,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
@@ -2501,7 +2503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
@@ -2517,7 +2519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
@@ -2533,7 +2535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
@@ -2549,7 +2551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
@@ -2565,7 +2567,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
@@ -2581,7 +2583,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
@@ -2597,7 +2599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
@@ -2613,7 +2615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
@@ -2658,12 +2660,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2671,22 +2673,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
         <v>118.1</v>
       </c>
       <c r="B2" s="8">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>19.683333333333334</v>
+        <v>26.244444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -2702,9 +2704,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2715,7 +2717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
         <v>71.428571428571416</v>
@@ -2732,7 +2734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>20</v>
       </c>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7872A72-4909-4733-8DAF-C9C7282CA9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBD8C0D-9144-4EA6-A97A-47616304EC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +137,9 @@
   </si>
   <si>
     <t>was een winst tade maar probleem met te veel dust</t>
+  </si>
+  <si>
+    <t>winst pf niet goed. Heb hier nog een trade tussen gedaan op btc met een liq box. Verlies</t>
   </si>
 </sst>
 </file>
@@ -605,25 +619,25 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,10 +685,10 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>-0.22809833572695482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-0.21120216271013703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45622</v>
       </c>
@@ -718,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -760,7 +774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -801,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -842,7 +856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
@@ -880,7 +894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45625</v>
       </c>
@@ -917,7 +931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
@@ -955,7 +969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45627</v>
       </c>
@@ -998,7 +1012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45632</v>
       </c>
@@ -1038,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45633</v>
       </c>
@@ -1078,7 +1092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45635</v>
       </c>
@@ -1118,7 +1132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45637</v>
       </c>
@@ -1158,7 +1172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
@@ -1196,7 +1210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45642</v>
       </c>
@@ -1239,7 +1253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45645</v>
       </c>
@@ -1249,7 +1263,9 @@
       <c r="C16">
         <v>118.1</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="4">
         <v>25</v>
       </c>
@@ -1268,26 +1284,32 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.6934801016091683E-2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17">
+        <v>118.12</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
@@ -1303,7 +1325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1319,7 +1341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1335,7 +1357,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1351,7 +1373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1367,7 +1389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1383,7 +1405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1399,7 +1421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1415,7 +1437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1431,7 +1453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1447,7 +1469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1463,7 +1485,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1479,7 +1501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1495,7 +1517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1511,7 +1533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
@@ -1527,7 +1549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
@@ -1543,7 +1565,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
@@ -1559,7 +1581,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
@@ -1575,7 +1597,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
@@ -1591,7 +1613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
@@ -1607,7 +1629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
@@ -1623,7 +1645,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
@@ -1639,7 +1661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
@@ -1655,7 +1677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
@@ -1671,7 +1693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
@@ -1687,7 +1709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
@@ -1703,7 +1725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
@@ -1719,7 +1741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
@@ -1735,7 +1757,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
@@ -1751,7 +1773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
@@ -1767,7 +1789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
@@ -1783,7 +1805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
@@ -1799,7 +1821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
@@ -1815,7 +1837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
@@ -1831,7 +1853,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
@@ -1847,7 +1869,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
@@ -1863,7 +1885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
@@ -1879,7 +1901,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
@@ -1895,7 +1917,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
@@ -1911,7 +1933,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
@@ -1927,7 +1949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
@@ -1943,7 +1965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
@@ -1959,7 +1981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
@@ -1975,7 +1997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
@@ -1991,7 +2013,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
@@ -2007,7 +2029,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
@@ -2023,7 +2045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
@@ -2039,7 +2061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
@@ -2055,7 +2077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
@@ -2071,7 +2093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
@@ -2087,7 +2109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
@@ -2103,7 +2125,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
@@ -2119,7 +2141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
@@ -2135,7 +2157,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
@@ -2151,7 +2173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
@@ -2167,7 +2189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
@@ -2183,7 +2205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
@@ -2199,7 +2221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
@@ -2215,7 +2237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
@@ -2231,7 +2253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
@@ -2247,7 +2269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
@@ -2263,7 +2285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
@@ -2279,7 +2301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
@@ -2295,7 +2317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
@@ -2311,7 +2333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
@@ -2327,7 +2349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
@@ -2343,7 +2365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
@@ -2359,7 +2381,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
@@ -2375,7 +2397,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
@@ -2391,7 +2413,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
@@ -2407,7 +2429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
@@ -2423,7 +2445,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
@@ -2439,7 +2461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
@@ -2455,7 +2477,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
@@ -2471,7 +2493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
@@ -2487,7 +2509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
@@ -2503,7 +2525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
@@ -2519,7 +2541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
@@ -2535,7 +2557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
@@ -2551,7 +2573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
@@ -2567,7 +2589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
@@ -2583,7 +2605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
@@ -2599,7 +2621,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
@@ -2615,7 +2637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
@@ -2663,9 +2685,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2673,22 +2695,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>118.1</v>
+        <v>118.12</v>
       </c>
       <c r="B2" s="8">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>26.244444444444444</v>
+        <v>26.248888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -2704,9 +2726,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2717,14 +2739,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>71.428571428571416</v>
+        <v>73.333333333333343</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
@@ -2734,7 +2756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>20</v>
       </c>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBD8C0D-9144-4EA6-A97A-47616304EC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618BBE01-5667-4841-BB74-54BD86AF43AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -619,25 +608,25 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +677,7 @@
         <v>-0.21120216271013703</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45622</v>
       </c>
@@ -732,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -774,7 +763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -815,7 +804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -856,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
@@ -894,7 +883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45625</v>
       </c>
@@ -931,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
@@ -969,7 +958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45627</v>
       </c>
@@ -1012,7 +1001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45632</v>
       </c>
@@ -1052,7 +1041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45633</v>
       </c>
@@ -1092,7 +1081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45635</v>
       </c>
@@ -1132,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45637</v>
       </c>
@@ -1172,7 +1161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
@@ -1210,7 +1199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45642</v>
       </c>
@@ -1253,7 +1242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45645</v>
       </c>
@@ -1290,8 +1279,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>45646</v>
+      </c>
       <c r="B17">
         <v>16</v>
       </c>
@@ -1299,17 +1290,28 @@
         <v>118.12</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>40</v>
+      </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33863867253640362</v>
+      </c>
+      <c r="G17">
+        <v>89.7</v>
+      </c>
+      <c r="H17">
+        <v>19.18</v>
+      </c>
+      <c r="I17">
+        <v>0.8</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
@@ -1325,7 +1327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1341,7 +1343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1357,7 +1359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1373,7 +1375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1389,7 +1391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1405,7 +1407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1421,7 +1423,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1437,7 +1439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1453,7 +1455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1469,7 +1471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1485,7 +1487,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1501,7 +1503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1517,7 +1519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1533,7 +1535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
@@ -1549,7 +1551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
@@ -1565,7 +1567,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
@@ -1581,7 +1583,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
@@ -1597,7 +1599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
@@ -1613,7 +1615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
@@ -1629,7 +1631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
@@ -1645,7 +1647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
@@ -1661,7 +1663,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
@@ -1677,7 +1679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
@@ -1693,7 +1695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
@@ -1709,7 +1711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
@@ -1725,7 +1727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
@@ -1741,7 +1743,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
@@ -1757,7 +1759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
@@ -1773,7 +1775,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
@@ -1789,7 +1791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
@@ -1805,7 +1807,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
@@ -1821,7 +1823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
@@ -1837,7 +1839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
@@ -1853,7 +1855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
@@ -1869,7 +1871,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
@@ -1885,7 +1887,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
@@ -1901,7 +1903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
@@ -1917,7 +1919,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
@@ -1933,7 +1935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
@@ -1949,7 +1951,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
@@ -1965,7 +1967,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
@@ -1981,7 +1983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
@@ -1997,7 +1999,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
@@ -2013,7 +2015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
@@ -2029,7 +2031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
@@ -2045,7 +2047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
@@ -2061,7 +2063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
@@ -2077,7 +2079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
@@ -2093,7 +2095,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
@@ -2109,7 +2111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
@@ -2125,7 +2127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
@@ -2141,7 +2143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
@@ -2157,7 +2159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
@@ -2173,7 +2175,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
@@ -2189,7 +2191,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
@@ -2205,7 +2207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
@@ -2221,7 +2223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
@@ -2237,7 +2239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
@@ -2253,7 +2255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
@@ -2269,7 +2271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
@@ -2285,7 +2287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
@@ -2301,7 +2303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
@@ -2317,7 +2319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
@@ -2333,7 +2335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
@@ -2349,7 +2351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
@@ -2365,7 +2367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
@@ -2381,7 +2383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
@@ -2397,7 +2399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
@@ -2413,7 +2415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
@@ -2429,7 +2431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
@@ -2445,7 +2447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
@@ -2461,7 +2463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
@@ -2477,7 +2479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
@@ -2493,7 +2495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
@@ -2509,7 +2511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
@@ -2525,7 +2527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
@@ -2541,7 +2543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
@@ -2557,7 +2559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
@@ -2573,7 +2575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
@@ -2589,7 +2591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
@@ -2605,7 +2607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
@@ -2621,7 +2623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
@@ -2637,7 +2639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
@@ -2682,12 +2684,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2695,22 +2697,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
         <v>118.12</v>
       </c>
       <c r="B2" s="8">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>26.248888888888889</v>
+        <v>39.373333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -2726,9 +2728,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
         <v>73.333333333333343</v>
@@ -2756,7 +2758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>20</v>
       </c>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618BBE01-5667-4841-BB74-54BD86AF43AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1D3326-44B5-424F-9ACB-B007D5126BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
   <sheets>
     <sheet name="logbook" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -608,25 +619,25 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="78.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,10 +685,10 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>-0.21120216271013703</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-1.4023823603953787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45622</v>
       </c>
@@ -721,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -763,7 +774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -804,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -845,7 +856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>5</v>
@@ -883,7 +894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45625</v>
       </c>
@@ -920,7 +931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>7</v>
@@ -958,7 +969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45627</v>
       </c>
@@ -1001,7 +1012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45632</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45633</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45635</v>
       </c>
@@ -1121,7 +1132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45637</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>13</v>
@@ -1199,7 +1210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45642</v>
       </c>
@@ -1242,7 +1253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45645</v>
       </c>
@@ -1279,7 +1290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45646</v>
       </c>
@@ -1289,7 +1300,9 @@
       <c r="C17">
         <v>118.12</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>-3.38</v>
+      </c>
       <c r="E17" s="4">
         <v>40</v>
       </c>
@@ -1308,26 +1321,29 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-1.1937013206908347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18">
+        <v>116.71</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1343,7 +1359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1359,7 +1375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1375,7 +1391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1391,7 +1407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1407,7 +1423,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1423,7 +1439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1439,7 +1455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1455,7 +1471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1471,7 +1487,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1487,7 +1503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1503,7 +1519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1519,7 +1535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1535,7 +1551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>
@@ -1551,7 +1567,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>32</v>
@@ -1567,7 +1583,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>33</v>
@@ -1583,7 +1599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>34</v>
@@ -1599,7 +1615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>35</v>
@@ -1615,7 +1631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>36</v>
@@ -1631,7 +1647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>37</v>
@@ -1647,7 +1663,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>38</v>
@@ -1663,7 +1679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>39</v>
@@ -1679,7 +1695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>40</v>
@@ -1695,7 +1711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>41</v>
@@ -1711,7 +1727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43">
         <v>42</v>
@@ -1727,7 +1743,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44">
         <v>43</v>
@@ -1743,7 +1759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45">
         <v>44</v>
@@ -1759,7 +1775,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46">
         <v>45</v>
@@ -1775,7 +1791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47">
         <v>46</v>
@@ -1791,7 +1807,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48">
         <v>47</v>
@@ -1807,7 +1823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49">
         <v>48</v>
@@ -1823,7 +1839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50">
         <v>49</v>
@@ -1839,7 +1855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51">
         <v>50</v>
@@ -1855,7 +1871,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52">
         <v>51</v>
@@ -1871,7 +1887,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53">
         <v>52</v>
@@ -1887,7 +1903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54">
         <v>53</v>
@@ -1903,7 +1919,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55">
         <v>54</v>
@@ -1919,7 +1935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56">
         <v>55</v>
@@ -1935,7 +1951,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57">
         <v>56</v>
@@ -1951,7 +1967,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58">
         <v>57</v>
@@ -1967,7 +1983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59">
         <v>58</v>
@@ -1983,7 +1999,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60">
         <v>59</v>
@@ -1999,7 +2015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61">
         <v>60</v>
@@ -2015,7 +2031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62">
         <v>61</v>
@@ -2031,7 +2047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63">
         <v>62</v>
@@ -2047,7 +2063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64">
         <v>63</v>
@@ -2063,7 +2079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65">
         <v>64</v>
@@ -2079,7 +2095,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66">
         <v>65</v>
@@ -2095,7 +2111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67">
         <v>66</v>
@@ -2111,7 +2127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68">
         <v>67</v>
@@ -2127,7 +2143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69">
         <v>68</v>
@@ -2143,7 +2159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70">
         <v>69</v>
@@ -2159,7 +2175,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71">
         <v>70</v>
@@ -2175,7 +2191,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72">
         <v>71</v>
@@ -2191,7 +2207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73">
         <v>72</v>
@@ -2207,7 +2223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74">
         <v>73</v>
@@ -2223,7 +2239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75">
         <v>74</v>
@@ -2239,7 +2255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76">
         <v>75</v>
@@ -2255,7 +2271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77">
         <v>76</v>
@@ -2271,7 +2287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78">
         <v>77</v>
@@ -2287,7 +2303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79">
         <v>78</v>
@@ -2303,7 +2319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80">
         <v>79</v>
@@ -2319,7 +2335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81">
         <v>80</v>
@@ -2335,7 +2351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82">
         <v>81</v>
@@ -2351,7 +2367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83">
         <v>82</v>
@@ -2367,7 +2383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84">
         <v>83</v>
@@ -2383,7 +2399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85">
         <v>84</v>
@@ -2399,7 +2415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86">
         <v>85</v>
@@ -2415,7 +2431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87">
         <v>86</v>
@@ -2431,7 +2447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88">
         <v>87</v>
@@ -2447,7 +2463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89">
         <v>88</v>
@@ -2463,7 +2479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90">
         <v>89</v>
@@ -2479,7 +2495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91">
         <v>90</v>
@@ -2495,7 +2511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92">
         <v>91</v>
@@ -2511,7 +2527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93">
         <v>92</v>
@@ -2527,7 +2543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94">
         <v>93</v>
@@ -2543,7 +2559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95">
         <v>94</v>
@@ -2559,7 +2575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96">
         <v>95</v>
@@ -2575,7 +2591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97">
         <v>96</v>
@@ -2591,7 +2607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98">
         <v>97</v>
@@ -2607,7 +2623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99">
         <v>98</v>
@@ -2623,7 +2639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100">
         <v>99</v>
@@ -2639,7 +2655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101">
         <v>100</v>
@@ -2687,9 +2703,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2697,22 +2713,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>118.12</v>
+        <v>116.71</v>
       </c>
       <c r="B2" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>39.373333333333335</v>
+        <v>38.903333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -2728,9 +2744,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2741,10 +2757,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>73.333333333333343</v>
+        <v>68.75</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
@@ -2752,13 +2768,13 @@
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>20</v>
       </c>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1D3326-44B5-424F-9ACB-B007D5126BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4FF59-3F5D-4776-818A-72E8AD7C3404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>winst pf niet goed. Heb hier nog een trade tussen gedaan op btc met een liq box. Verlies</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>3.6b</t>
+  </si>
+  <si>
+    <t>trail</t>
+  </si>
+  <si>
+    <t>trade op btc/usdt op liq box.</t>
   </si>
 </sst>
 </file>
@@ -619,7 +631,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45646</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>-1.1937013206908347</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>17</v>
@@ -1333,17 +1345,37 @@
         <v>116.71</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>30</v>
+      </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25704738240082259</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>18</v>
@@ -1359,7 +1391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>19</v>
@@ -1375,7 +1407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>20</v>
@@ -1391,7 +1423,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>21</v>
@@ -1407,7 +1439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>22</v>
@@ -1423,7 +1455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>23</v>
@@ -1439,7 +1471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>24</v>
@@ -1455,7 +1487,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>25</v>
@@ -1471,7 +1503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>26</v>
@@ -1487,7 +1519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>27</v>
@@ -1503,7 +1535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>28</v>
@@ -1519,7 +1551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>29</v>
@@ -1535,7 +1567,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>30</v>
@@ -1551,7 +1583,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>31</v>

--- a/Logboek sifi.xlsx
+++ b/Logboek sifi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4FF59-3F5D-4776-818A-72E8AD7C3404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07097D-43AD-45EA-8BFA-585D60504FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2DE36FA-96A0-4F34-A05D-A90662D87F91}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="P1" s="2">
         <f>LOOKUP(2,1/(C2:C101&lt;&gt;""),C2:C101) / (C2/100)-100</f>
-        <v>-1.4023823603953787</v>
+        <v>-1.9346118104249399</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,9 @@
       <c r="C18">
         <v>116.71</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>-1.5</v>
+      </c>
       <c r="E18" s="4">
         <v>30</v>
       </c>
@@ -1369,7 +1371,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>-0.53979950304173485</v>
       </c>
       <c r="N18" t="s">
         <v>37</v>
@@ -1380,15 +1382,18 @@
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19">
+        <v>116.08</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2748,7 +2753,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>LOOKUP(2,1/(Table1[PF Usdt]&lt;&gt;""),Table1[PF Usdt])</f>
-        <v>116.71</v>
+        <v>116.08</v>
       </c>
       <c r="B2" s="8">
         <v>0.02</v>
@@ -2760,7 +2765,7 @@
       </c>
       <c r="C4" s="2">
         <f>A2 / (100 * B2 * 1.5)</f>
-        <v>38.903333333333329</v>
+        <v>38.693333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2797,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2/((B2+C2)/100)</f>
-        <v>68.75</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="B2">
         <f>COUNTIF(logbook!D2:D100, "&gt;0")</f>
@@ -2800,7 +2805,7 @@
       </c>
       <c r="C2">
         <f>COUNTIF(logbook!D2:D100, "&lt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
